--- a/test/bddTest.xlsx
+++ b/test/bddTest.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -587,7 +587,7 @@
         <v>816</v>
       </c>
       <c r="D3" t="n">
-        <v>1502</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="4">
@@ -603,7 +603,7 @@
         <v>2476</v>
       </c>
       <c r="D4" t="n">
-        <v>3002</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="5">
@@ -619,7 +619,7 @@
         <v>5000</v>
       </c>
       <c r="D5" t="n">
-        <v>4582</v>
+        <v>4588</v>
       </c>
     </row>
   </sheetData>
